--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1836949-D221-4FF4-A3B0-5C599F7D1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5B8E3-7F4C-4463-88C7-E55F8F52026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="89">
   <si>
     <t>Column_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,63 +153,56 @@
     <t>al</t>
   </si>
   <si>
-    <t>Consumo: Llano</t>
+    <t>Base imponible</t>
+  </si>
+  <si>
+    <t>TOTAL IMPORTE FACTURA</t>
+  </si>
+  <si>
+    <t>Impuesto aplicado</t>
+  </si>
+  <si>
+    <t>Por término fijo</t>
+  </si>
+  <si>
+    <t>Por término variable</t>
+  </si>
+  <si>
+    <t>Base Imponible4</t>
+  </si>
+  <si>
+    <t>Base Imponible5</t>
+  </si>
+  <si>
+    <t>Impuesto de electricidad</t>
+  </si>
+  <si>
+    <t>Alquiler de equipo de medida</t>
+  </si>
+  <si>
+    <t>Otros conceptos</t>
+  </si>
+  <si>
+    <t>SplitFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumo del periodo (Real) hasta</t>
   </si>
   <si>
     <t>kWh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base imponible</t>
-  </si>
-  <si>
-    <t>TOTAL IMPORTE FACTURA</t>
-  </si>
-  <si>
-    <t>Impuesto aplicado</t>
-  </si>
-  <si>
-    <t>Por término fijo</t>
-  </si>
-  <si>
-    <t>Por término variable</t>
-  </si>
-  <si>
-    <t>Base Imponible4</t>
-  </si>
-  <si>
-    <t>Base Imponible5</t>
-  </si>
-  <si>
-    <t>Impuesto de electricidad</t>
-  </si>
-  <si>
-    <t>Alquiler de equipo de medida</t>
-  </si>
-  <si>
-    <t>Otros conceptos</t>
-  </si>
-  <si>
-    <t>SplitFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Format</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>al</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo del periodo (Real) hasta</t>
-  </si>
-  <si>
-    <t>kWh</t>
   </si>
   <si>
     <t>TOTAL FACTURA</t>
@@ -265,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Consumo: Punta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Titular del contrato:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,10 +302,6 @@
     <t>CódigoCUPS:</t>
   </si>
   <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total IVA 21%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +328,29 @@
   </si>
   <si>
     <t>Screen POOL</t>
+  </si>
+  <si>
+    <t>EnergíakWh</t>
+  </si>
+  <si>
+    <t>Consumo:Punta</t>
+  </si>
+  <si>
+    <t>Consumo:Llano</t>
+  </si>
+  <si>
+    <t>Consumo:Valle</t>
+  </si>
+  <si>
+    <t>EnergíaP3</t>
+  </si>
+  <si>
+    <t>EnergíaP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergíaP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,7 +937,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -955,22 +963,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -978,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -986,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -994,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1002,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1010,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1018,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1026,10 +1034,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1040,16 +1048,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1059,16 +1067,43 @@
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
@@ -1120,13 +1155,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -1167,7 +1202,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1188,22 +1223,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1211,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1225,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1241,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1255,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1271,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1287,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1301,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1319,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -1337,11 +1372,9 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1353,11 +1386,9 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1369,11 +1400,9 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1418,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -1456,7 +1485,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1468,7 +1497,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
@@ -1483,13 +1512,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1504,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -1532,7 +1561,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1553,22 +1582,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1590,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1606,10 +1635,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1624,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1642,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1673,7 +1702,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1691,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1704,35 +1733,50 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
@@ -1772,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -1789,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -1806,7 +1850,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -1820,10 +1864,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1837,10 +1881,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -1857,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1874,7 +1918,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -1924,22 +1968,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1947,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1965,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1979,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1993,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2007,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2021,10 +2065,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2039,10 +2083,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2057,10 +2101,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2075,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2099,10 +2143,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2117,10 +2161,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -2168,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2208,7 +2252,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -2222,7 +2266,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -2253,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>

--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5B8E3-7F4C-4463-88C7-E55F8F52026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94104A-ACDF-4323-9B89-8B5EB479770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="nexus" sheetId="3" r:id="rId3"/>
     <sheet name="repsol" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="164">
   <si>
     <t>Column_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,66 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Número Factura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fecha Factura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fecha inicio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fecha fin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nombre Cliente</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tarifa Acceso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo Activa Punta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo Activa Llano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo Activa Valle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo Reactiva Punta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo Reactiva Llano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumo Reactiva Valle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Imponible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IVA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Importe Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Periodo de facturación</t>
   </si>
   <si>
@@ -126,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base Imponible2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Imponible3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Potencia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,12 +111,6 @@
     <t>Por término variable</t>
   </si>
   <si>
-    <t>Base Imponible4</t>
-  </si>
-  <si>
-    <t>Base Imponible5</t>
-  </si>
-  <si>
     <t>Impuesto de electricidad</t>
   </si>
   <si>
@@ -351,23 +288,305 @@
   <si>
     <t>EnergíaP2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TipoPrecio</t>
+  </si>
+  <si>
+    <t>IdFactura</t>
+  </si>
+  <si>
+    <t>FacturaAgrupadaSN</t>
+  </si>
+  <si>
+    <t>TipoFactura</t>
+  </si>
+  <si>
+    <t>FechaFactura</t>
+  </si>
+  <si>
+    <t>NumeroFactura</t>
+  </si>
+  <si>
+    <t>FechaDesde</t>
+  </si>
+  <si>
+    <t>FechaHasta</t>
+  </si>
+  <si>
+    <t>ImporteTotalFactura</t>
+  </si>
+  <si>
+    <t>IndexadoSN</t>
+  </si>
+  <si>
+    <t>PeajeDirectoSN</t>
+  </si>
+  <si>
+    <t>NombreAgrupacionClientes</t>
+  </si>
+  <si>
+    <t>IdCliente</t>
+  </si>
+  <si>
+    <t>NombreCliente</t>
+  </si>
+  <si>
+    <t>BaseImponible</t>
+  </si>
+  <si>
+    <t>ImportePotencia calcu</t>
+  </si>
+  <si>
+    <t>ImporteEnergiaActiva calcu</t>
+  </si>
+  <si>
+    <t>ImporteEnergiaReactiva calcu</t>
+  </si>
+  <si>
+    <t>ImporteImpuestoElectrico calcu</t>
+  </si>
+  <si>
+    <t>ImporteAlquileres calcu</t>
+  </si>
+  <si>
+    <t>Otros calcu</t>
+  </si>
+  <si>
+    <t>Coberturas calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaActivaP1 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaActivaP2 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaActivaP3 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaActivaP4 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaActivaP5 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaActivaP6 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaReactivaP1 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaReactivaP2 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaReactivaP3 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaReactivaP4 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaReactivaP5 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoEnergiaReactivaP6 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoPotenciaMaximetroP1 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoPotenciaMaximetroP2 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoPotenciaMaximetroP3 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoPotenciaMaximetroP4 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoPotenciaMaximetroP5 calcu</t>
+  </si>
+  <si>
+    <t>ConsumoPotenciaMaximetroP6 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaContratadaP1 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaContratadaP2 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaContratadaP3 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaContratadaP4 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaContratadaP5 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaContratadaP6 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaFacturadaP1 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaFacturadaP2 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaFacturadaP3 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaFacturadaP4 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaFacturadaP5 calcu</t>
+  </si>
+  <si>
+    <t>PotenciaFacturadaP6 calcu</t>
+  </si>
+  <si>
+    <t>LECT TIPO INICIO</t>
+  </si>
+  <si>
+    <t>LECT TIPO FIN</t>
+  </si>
+  <si>
+    <t>LECANT ACTIVA P1</t>
+  </si>
+  <si>
+    <t>LECANT ACTIVA P2</t>
+  </si>
+  <si>
+    <t>LECANT ACTIVA P3</t>
+  </si>
+  <si>
+    <t>LECANT ACTIVA P4</t>
+  </si>
+  <si>
+    <t>LECANT ACTIVA P5</t>
+  </si>
+  <si>
+    <t>LECANT ACTIVA P6</t>
+  </si>
+  <si>
+    <t>LECT ACTIVA P1</t>
+  </si>
+  <si>
+    <t>LECT ACTIVA P2</t>
+  </si>
+  <si>
+    <t>LECT ACTIVA P3</t>
+  </si>
+  <si>
+    <t>LECT ACTIVA P4</t>
+  </si>
+  <si>
+    <t>LECT ACTIVA P5</t>
+  </si>
+  <si>
+    <t>LECT ACTIVA P6</t>
+  </si>
+  <si>
+    <t>LECANT REACTIVA P1</t>
+  </si>
+  <si>
+    <t>LECANT REACTIVA P2</t>
+  </si>
+  <si>
+    <t>LECANT REACTIVA P3</t>
+  </si>
+  <si>
+    <t>LECANT REACTIVA P4</t>
+  </si>
+  <si>
+    <t>LECANT REACTIVA P5</t>
+  </si>
+  <si>
+    <t>LECANT REACTIVA P6</t>
+  </si>
+  <si>
+    <t>LECT REACTIVA P1</t>
+  </si>
+  <si>
+    <t>LECT REACTIVA P2</t>
+  </si>
+  <si>
+    <t>LECT REACTIVA P3</t>
+  </si>
+  <si>
+    <t>LECT REACTIVA P4</t>
+  </si>
+  <si>
+    <t>LECT REACTIVA P5</t>
+  </si>
+  <si>
+    <t>LECT REACTIVA P6</t>
+  </si>
+  <si>
+    <t>LECT MAXIMETRO1</t>
+  </si>
+  <si>
+    <t>LECT MAXIMETRO2</t>
+  </si>
+  <si>
+    <t>LECT MAXIMETRO3</t>
+  </si>
+  <si>
+    <t>LECT MAXIMETRO4</t>
+  </si>
+  <si>
+    <t>LECT MAXIMETRO5</t>
+  </si>
+  <si>
+    <t>LECT MAXIMETRO6</t>
+  </si>
+  <si>
+    <t>TarifaAcceso</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>TotalFactura</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>SUMINISTRO</t>
+  </si>
+  <si>
+    <t>FIJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const </t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>WxRx+XxRx+YxRx+ZxRx+AAxRx+ABxRx+ACxRx</t>
+  </si>
+  <si>
+    <t>Column_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,20 +594,41 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,8 +640,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -424,13 +670,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,7 +714,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,9 +727,62 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{47147BB6-1597-4FF4-939B-8FEF4DCC0618}"/>
     <cellStyle name="Notas 2" xfId="2" xr:uid="{9A45C4B7-504D-4574-911B-524EF29BA2BC}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="39">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -494,7 +821,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -533,52 +883,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -600,72 +928,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF799D8C-4FD9-4822-B8B4-11427053E06F}" name="Tabla1" displayName="Tabla1" ref="A1:I22" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:I22" xr:uid="{CF799D8C-4FD9-4822-B8B4-11427053E06F}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{37F3CDBB-EE6D-436E-A96D-EA6CCF4FC7DD}" name="Column_Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{723BBD4A-43F5-46D1-8F7A-E9DA9F6899DF}" name="Selector" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{ADD053F3-19DE-4A9D-96DC-A75E10F82BD7}" name="Check" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{FE46DDE0-3808-4494-99E8-FDDF7B5564F9}" name="Format" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{A324371C-39F9-4196-96C5-2CB279BD2B13}" name="SplitFormat" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{A63D63ED-F0DF-4AA9-840C-B37ED6C1AF06}" name="Format2" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{26ACC00D-7FB9-4406-93AA-04AB4C1FC1A6}" name="SplitFormat2" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{4027FDCA-16BF-4376-90BB-DE0BC013531C}" name="Next" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{DD5280C1-058B-4040-A624-11C11DC137B0}" name="limit" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF799D8C-4FD9-4822-B8B4-11427053E06F}" name="Tabla1" displayName="Tabla1" ref="A1:K90" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:K90" xr:uid="{CF799D8C-4FD9-4822-B8B4-11427053E06F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{37F3CDBB-EE6D-436E-A96D-EA6CCF4FC7DD}" name="Column_Name" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{723BBD4A-43F5-46D1-8F7A-E9DA9F6899DF}" name="Selector" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{ADD053F3-19DE-4A9D-96DC-A75E10F82BD7}" name="Check" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{FE46DDE0-3808-4494-99E8-FDDF7B5564F9}" name="Format" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{A324371C-39F9-4196-96C5-2CB279BD2B13}" name="SplitFormat" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{A63D63ED-F0DF-4AA9-840C-B37ED6C1AF06}" name="Format2" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{26ACC00D-7FB9-4406-93AA-04AB4C1FC1A6}" name="SplitFormat2" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{4027FDCA-16BF-4376-90BB-DE0BC013531C}" name="Next" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{DD5280C1-058B-4040-A624-11C11DC137B0}" name="limit" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{DAF6F25F-8E17-4DD7-B969-0378A045916B}" name="const" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{404A0CEC-2399-43ED-A967-931758ABDC96}" name="formula" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8A1B379-27BE-4742-A2C9-78BA891C657F}" name="Tabla13" displayName="Tabla13" ref="A1:I22" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:I22" xr:uid="{D8A1B379-27BE-4742-A2C9-78BA891C657F}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F8889F9A-280D-4787-9477-372D7233221A}" name="Column_Name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{141B70A5-533C-4BBF-A722-D2F3B7EE819E}" name="Selector" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{026C4145-E88A-41B7-8A4E-30C94C2CE08C}" name="Check" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{677A3655-A337-4F06-827C-9F4831A364D0}" name="Format" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{A31B6F47-5D6C-4E15-A0FE-83AF0847A373}" name="SplitFormat" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{379D75AA-8658-4C54-8F3B-6C3250100CAA}" name="Format2" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{2F2BF3BB-0ABF-4E4E-962E-FB86FE591A67}" name="SplitFormat2" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{7D3E35FA-135E-41B4-8E97-773D2FBE0C18}" name="Next" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{52AF1696-3FFC-441B-883E-BF4623A55FE7}" name="limit" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8A1B379-27BE-4742-A2C9-78BA891C657F}" name="Tabla13" displayName="Tabla13" ref="A1:K90" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:K90" xr:uid="{D8A1B379-27BE-4742-A2C9-78BA891C657F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{F8889F9A-280D-4787-9477-372D7233221A}" name="Column_Name" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{141B70A5-533C-4BBF-A722-D2F3B7EE819E}" name="Selector" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{026C4145-E88A-41B7-8A4E-30C94C2CE08C}" name="Check" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{677A3655-A337-4F06-827C-9F4831A364D0}" name="Format" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{A31B6F47-5D6C-4E15-A0FE-83AF0847A373}" name="SplitFormat" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{379D75AA-8658-4C54-8F3B-6C3250100CAA}" name="Format2" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{2F2BF3BB-0ABF-4E4E-962E-FB86FE591A67}" name="SplitFormat2" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{7D3E35FA-135E-41B4-8E97-773D2FBE0C18}" name="Next" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{52AF1696-3FFC-441B-883E-BF4623A55FE7}" name="limit" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9198652E-3FF2-4F53-ABD1-0321ECE44A9F}" name="const" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{C5EC9FAE-60DB-4751-A6FF-A786DC9297E6}" name="formula" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B567505-B769-4150-B819-6199B19FE626}" name="Tabla14" displayName="Tabla14" ref="A1:I22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:I22" xr:uid="{2B567505-B769-4150-B819-6199B19FE626}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{242B5752-04B2-4543-95BA-3FDD63CC68A4}" name="Column_Name" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{4FDEACEE-364D-4773-909C-EFEAE9DEB634}" name="Selector" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{190BC9B5-6C18-47C9-B323-6EFF5F294201}" name="Check" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{543D68BB-E6AA-4058-8814-5877AE15A562}" name="Format" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{EE9EFC82-6806-4D86-AE15-2394A3FD85BF}" name="SplitFormat" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{D86FC6E4-00A5-4804-939E-050ABD3BCF8B}" name="Format2" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{E86F4FF2-B0C7-47FB-B00C-6E0F98FABC10}" name="SplitFormat2" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{072BF994-DEEE-4B48-B606-56DB1E97603E}" name="Next" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{A23B680E-E599-4781-AE79-075A5EBEA468}" name="limit" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B567505-B769-4150-B819-6199B19FE626}" name="Tabla14" displayName="Tabla14" ref="A1:K90" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:K90" xr:uid="{2B567505-B769-4150-B819-6199B19FE626}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{242B5752-04B2-4543-95BA-3FDD63CC68A4}" name="Column_Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4FDEACEE-364D-4773-909C-EFEAE9DEB634}" name="Selector" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{190BC9B5-6C18-47C9-B323-6EFF5F294201}" name="Check" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{543D68BB-E6AA-4058-8814-5877AE15A562}" name="Format" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{EE9EFC82-6806-4D86-AE15-2394A3FD85BF}" name="SplitFormat" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D86FC6E4-00A5-4804-939E-050ABD3BCF8B}" name="Format2" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{E86F4FF2-B0C7-47FB-B00C-6E0F98FABC10}" name="SplitFormat2" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{072BF994-DEEE-4B48-B606-56DB1E97603E}" name="Next" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{A23B680E-E599-4781-AE79-075A5EBEA468}" name="limit" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DA13F51E-7622-454D-9E2C-1B86FDC52420}" name="const " dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2E189AE8-10B9-45C6-81D7-90A31449ACD6}" name="formula" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C0A7AA47-653F-47D9-953A-B3C75C3347AC}" name="Tabla15" displayName="Tabla15" ref="A1:I22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I22" xr:uid="{C0A7AA47-653F-47D9-953A-B3C75C3347AC}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6F2C20DA-794F-40FF-B0C0-A12962E6B8C8}" name="Column_Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F2A17ACE-34EF-4B2B-9841-533293DF54B3}" name="Selector" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1B3B0BCB-2108-438F-B046-80FB2147D93E}" name="Check" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4373F638-D5AB-425C-9D51-F2BA20BBE662}" name="Format" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{3D031CE5-3FCF-4C4C-9C3F-E3A3D3B4E0C5}" name="SplitFormat" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0124BF65-AE69-4402-87B5-4F27FE1CBBC6}" name="Format2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{7702B7A1-3432-4269-BE09-210A772401AB}" name="SplitFormat2" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{FDECD8AA-C169-41B8-A1E7-795D2FDA5AAD}" name="Next" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{EE49010A-02AD-4636-ABA3-6084BA7500DD}" name="limit" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C0A7AA47-653F-47D9-953A-B3C75C3347AC}" name="Tabla15" displayName="Tabla15" ref="A1:K90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K90" xr:uid="{C0A7AA47-653F-47D9-953A-B3C75C3347AC}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6F2C20DA-794F-40FF-B0C0-A12962E6B8C8}" name="Column_Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F2A17ACE-34EF-4B2B-9841-533293DF54B3}" name="Selector" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{1B3B0BCB-2108-438F-B046-80FB2147D93E}" name="Check" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{4373F638-D5AB-425C-9D51-F2BA20BBE662}" name="Format" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{3D031CE5-3FCF-4C4C-9C3F-E3A3D3B4E0C5}" name="SplitFormat" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{0124BF65-AE69-4402-87B5-4F27FE1CBBC6}" name="Format2" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{7702B7A1-3432-4269-BE09-210A772401AB}" name="SplitFormat2" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{FDECD8AA-C169-41B8-A1E7-795D2FDA5AAD}" name="Next" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{EE49010A-02AD-4636-ABA3-6084BA7500DD}" name="limit" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A4C7E3D2-2E9B-4252-9666-7D9922D5C09B}" name="const" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C0EA7D4D-245A-4362-BA0F-9137ED0F2B57}" name="formula" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,257 +1270,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="I30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I31">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1199,20 +1894,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375777A-50BC-4FCF-B8D1-C0BC6E62E220}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection sqref="A1:A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,30 +1924,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1254,29 +1958,23 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1284,13 +1982,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1300,13 +2002,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1316,13 +2019,11 @@
         <v>1</v>
       </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1330,223 +2031,1175 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="J7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A62" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A63" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A66" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A67" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A72" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A73" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A76" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A77" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A78" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A79" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A80" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A81" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A86" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A87" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A88" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A89" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A90" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,20 +3211,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98519-5164-4E6D-BDC6-A98A4635A150}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,30 +3235,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1613,50 +3269,44 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>81</v>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1665,13 +3315,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1679,13 +3330,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1693,184 +3342,201 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="J7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1878,16 +3544,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1895,43 +3563,938 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>21</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>21</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A62" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A63" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A66" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A67" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A72" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A73" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A76" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A77" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A78" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A79" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A80" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A81" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A86" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A87" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A88" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A89" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A90" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1943,21 +4506,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,48 +4531,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2017,13 +4578,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2031,13 +4591,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2045,13 +4609,15 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2059,34 +4625,33 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="J7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2095,16 +4660,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2113,40 +4680,38 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2155,64 +4720,73 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2221,13 +4795,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2235,13 +4811,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2249,27 +4827,32 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2277,13 +4860,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2291,24 +4879,941 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A62" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A63" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A66" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A67" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A72" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A73" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A76" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A77" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A78" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A79" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A80" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A81" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A83" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A86" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A87" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A88" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A89" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A90" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94104A-ACDF-4323-9B89-8B5EB479770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548DE04-FA90-4DF4-85D2-A84C904EC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="168">
   <si>
     <t>Column_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,9 +99,6 @@
     <t>Base imponible</t>
   </si>
   <si>
-    <t>TOTAL IMPORTE FACTURA</t>
-  </si>
-  <si>
     <t>Impuesto aplicado</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t xml:space="preserve"> Subtotal</t>
   </si>
   <si>
-    <t>Screen POOL</t>
-  </si>
-  <si>
     <t>EnergíakWh</t>
   </si>
   <si>
@@ -570,6 +564,24 @@
   </si>
   <si>
     <t>Column_Name</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>IMPORTE TOTAL DE LA FACTURA</t>
+  </si>
+  <si>
+    <t>CIF/NIF:</t>
+  </si>
+  <si>
+    <t>VxRx-TxRx</t>
+  </si>
+  <si>
+    <t>Descuentos</t>
+  </si>
+  <si>
+    <t>TxRx+UxRx</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1290,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1299,46 +1311,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1346,50 +1358,50 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1397,19 +1409,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1417,7 +1429,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1425,33 +1437,39 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1459,20 +1477,20 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1480,10 +1498,16 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1491,10 +1515,19 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1502,10 +1535,16 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1513,25 +1552,31 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1539,18 +1584,36 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1561,10 +1624,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1575,10 +1638,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -1589,297 +1652,297 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1896,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375777A-50BC-4FCF-B8D1-C0BC6E62E220}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection sqref="A1:A90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1924,33 +1987,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1962,7 +2025,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1974,7 +2037,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1983,7 +2046,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -1992,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2006,10 +2069,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2023,7 +2086,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2032,16 +2095,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2054,10 +2117,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2070,10 +2133,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -2090,10 +2153,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -2110,16 +2173,20 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
@@ -2131,7 +2198,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2145,7 +2212,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2159,7 +2226,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2173,7 +2240,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2187,10 +2254,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2208,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2221,7 +2288,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -2229,8 +2296,12 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2240,22 +2311,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2263,16 +2338,20 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
@@ -2284,7 +2363,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2298,7 +2377,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2312,7 +2391,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2326,7 +2405,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2340,7 +2419,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2354,7 +2433,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2368,7 +2447,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2382,13 +2461,17 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2398,13 +2481,17 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2414,13 +2501,17 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2430,7 +2521,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2443,7 +2534,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2456,7 +2547,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2469,7 +2560,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2483,7 +2574,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2497,7 +2588,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2511,7 +2602,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2525,7 +2616,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2538,7 +2629,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2551,7 +2642,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2564,7 +2655,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2577,7 +2668,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2590,7 +2681,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2603,7 +2694,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2616,7 +2707,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2629,7 +2720,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2642,7 +2733,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2655,7 +2746,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2668,7 +2759,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2681,7 +2772,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2694,7 +2785,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2707,7 +2798,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2720,7 +2811,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2733,7 +2824,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2746,7 +2837,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2759,7 +2850,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2772,7 +2863,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2785,7 +2876,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2798,7 +2889,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2811,7 +2902,7 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2824,7 +2915,7 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2837,7 +2928,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2850,7 +2941,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2863,7 +2954,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2876,7 +2967,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2889,7 +2980,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2902,7 +2993,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2915,7 +3006,7 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2928,7 +3019,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2941,7 +3032,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2954,7 +3045,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2967,7 +3058,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2980,7 +3071,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2993,7 +3084,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3006,7 +3097,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3019,7 +3110,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3032,7 +3123,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3045,7 +3136,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3058,7 +3149,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3071,7 +3162,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3084,7 +3175,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3097,7 +3188,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3110,7 +3201,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3123,7 +3214,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3136,7 +3227,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3149,7 +3240,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3162,7 +3253,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3175,7 +3266,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3188,7 +3279,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3213,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98519-5164-4E6D-BDC6-A98A4635A150}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3235,33 +3326,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3273,7 +3364,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3285,7 +3376,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3294,7 +3385,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3303,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3319,10 +3410,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3334,7 +3425,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3343,13 +3434,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -3365,7 +3456,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -3381,13 +3472,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3401,13 +3492,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3421,28 +3512,30 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3456,7 +3549,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3470,7 +3563,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3484,7 +3577,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3498,17 +3591,17 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3519,10 +3612,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3536,7 +3629,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3545,20 +3638,26 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3568,37 +3667,43 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3608,16 +3713,20 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3627,23 +3736,28 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3653,16 +3767,20 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3672,16 +3790,20 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3691,7 +3813,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -3705,13 +3827,17 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3723,13 +3849,17 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3741,13 +3871,17 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3759,7 +3893,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3772,7 +3906,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3785,7 +3919,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3798,42 +3932,42 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3846,7 +3980,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3859,7 +3993,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3872,7 +4006,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3885,7 +4019,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3898,7 +4032,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3911,7 +4045,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3924,7 +4058,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3937,7 +4071,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3950,7 +4084,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3963,7 +4097,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3976,7 +4110,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3989,7 +4123,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4002,7 +4136,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4015,7 +4149,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4028,7 +4162,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4041,7 +4175,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4054,7 +4188,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4067,7 +4201,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4080,7 +4214,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4093,7 +4227,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4106,7 +4240,7 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4119,7 +4253,7 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4132,7 +4266,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4145,7 +4279,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4158,7 +4292,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4171,7 +4305,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4184,7 +4318,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4197,7 +4331,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4210,7 +4344,7 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4223,7 +4357,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4236,7 +4370,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4249,7 +4383,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4262,7 +4396,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4275,7 +4409,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4288,7 +4422,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4301,7 +4435,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4314,7 +4448,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4327,7 +4461,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4340,7 +4474,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4353,7 +4487,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4366,7 +4500,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4379,7 +4513,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4392,7 +4526,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4405,7 +4539,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4418,7 +4552,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4431,7 +4565,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4444,7 +4578,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4457,7 +4591,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4470,7 +4604,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4483,7 +4617,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4508,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4531,33 +4665,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4570,7 +4704,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4583,7 +4717,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4592,7 +4726,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -4601,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4614,10 +4748,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4630,7 +4764,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4639,19 +4773,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -4665,13 +4799,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4685,13 +4819,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -4705,13 +4839,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4725,16 +4859,20 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4744,7 +4882,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -4758,7 +4896,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -4772,7 +4910,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -4786,7 +4924,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -4800,10 +4938,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4819,7 +4957,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4832,10 +4970,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -4849,32 +4987,36 @@
     </row>
     <row r="20" spans="1:11" ht="13.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4884,7 +5026,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -4898,7 +5040,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -4912,7 +5054,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -4926,7 +5068,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -4940,7 +5082,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -4954,7 +5096,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -4968,7 +5110,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -4982,19 +5124,19 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -5008,13 +5150,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -5028,13 +5170,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -5048,7 +5190,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5061,7 +5203,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5074,7 +5216,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5087,7 +5229,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5100,7 +5242,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5113,7 +5255,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5126,7 +5268,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5139,7 +5281,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5152,7 +5294,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5165,7 +5307,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5178,7 +5320,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5191,7 +5333,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5204,7 +5346,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5217,7 +5359,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5230,7 +5372,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5243,7 +5385,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5256,7 +5398,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5269,7 +5411,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5282,7 +5424,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5295,7 +5437,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5308,7 +5450,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5321,7 +5463,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5334,7 +5476,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5347,7 +5489,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5360,7 +5502,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5373,7 +5515,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5386,7 +5528,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5399,7 +5541,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5412,7 +5554,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5425,7 +5567,7 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5438,7 +5580,7 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5451,7 +5593,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5464,7 +5606,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5477,7 +5619,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5490,7 +5632,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5503,7 +5645,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5516,7 +5658,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5529,7 +5671,7 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5542,7 +5684,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5555,7 +5697,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5568,7 +5710,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5581,7 +5723,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5594,7 +5736,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5607,7 +5749,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5620,7 +5762,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5633,7 +5775,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5646,7 +5788,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5659,7 +5801,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5672,7 +5814,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5685,7 +5827,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5698,7 +5840,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5711,7 +5853,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5724,7 +5866,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5737,7 +5879,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5750,7 +5892,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5763,7 +5905,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5776,7 +5918,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5789,7 +5931,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5802,7 +5944,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548DE04-FA90-4DF4-85D2-A84C904EC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589C8819-F56B-472E-B326-138ACF4821C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="168">
-  <si>
-    <t>Column_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="172">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,12 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Consumo del periodo (Real) hasta</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
     <t>TOTAL FACTURA</t>
   </si>
   <si>
@@ -250,10 +240,6 @@
     <t xml:space="preserve">Periodo de Facturación:del </t>
   </si>
   <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,29 +247,6 @@
     <t xml:space="preserve"> Subtotal</t>
   </si>
   <si>
-    <t>EnergíakWh</t>
-  </si>
-  <si>
-    <t>Consumo:Punta</t>
-  </si>
-  <si>
-    <t>Consumo:Llano</t>
-  </si>
-  <si>
-    <t>Consumo:Valle</t>
-  </si>
-  <si>
-    <t>EnergíaP3</t>
-  </si>
-  <si>
-    <t>EnergíaP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergíaP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TipoPrecio</t>
   </si>
   <si>
@@ -563,9 +526,6 @@
     <t>WxRx+XxRx+YxRx+ZxRx+AAxRx+ABxRx+ACxRx</t>
   </si>
   <si>
-    <t>Column_Name</t>
-  </si>
-  <si>
     <t>€</t>
   </si>
   <si>
@@ -582,6 +542,54 @@
   </si>
   <si>
     <t>TxRx+UxRx</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>xYYx</t>
+  </si>
+  <si>
+    <t>Tipo de lectura:</t>
+  </si>
+  <si>
+    <t>EnergíaxYYxkWh</t>
+  </si>
+  <si>
+    <t>Lectura anterior:xYYxPuntaxYYxreal</t>
+  </si>
+  <si>
+    <t>Lectura anterior:xYYxLlanoxYYxreal</t>
+  </si>
+  <si>
+    <t>Lectura anterior:xYYxVallexYYxreal</t>
+  </si>
+  <si>
+    <t>Lectura actual:xYYxPuntaxYYxreal</t>
+  </si>
+  <si>
+    <t>Lectura actual:xYYxLlanoxYYxreal</t>
+  </si>
+  <si>
+    <t>Lectura actual:xYYxVallexYYxreal</t>
+  </si>
+  <si>
+    <t>Consumo:xYYxPunta</t>
+  </si>
+  <si>
+    <t>Consumo:xYYxLlano</t>
+  </si>
+  <si>
+    <t>Consumo:xYYxValle</t>
+  </si>
+  <si>
+    <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx</t>
+  </si>
+  <si>
+    <t>Lectura Actual xYYx</t>
+  </si>
+  <si>
+    <t>Lectura Anterior xYYx</t>
   </si>
 </sst>
 </file>
@@ -943,7 +951,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF799D8C-4FD9-4822-B8B4-11427053E06F}" name="Tabla1" displayName="Tabla1" ref="A1:K90" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:K90" xr:uid="{CF799D8C-4FD9-4822-B8B4-11427053E06F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{37F3CDBB-EE6D-436E-A96D-EA6CCF4FC7DD}" name="Column_Name" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{37F3CDBB-EE6D-436E-A96D-EA6CCF4FC7DD}" name="Factura" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{723BBD4A-43F5-46D1-8F7A-E9DA9F6899DF}" name="Selector" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{ADD053F3-19DE-4A9D-96DC-A75E10F82BD7}" name="Check" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{FE46DDE0-3808-4494-99E8-FDDF7B5564F9}" name="Format" dataCellStyle="Normal"/>
@@ -963,7 +971,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8A1B379-27BE-4742-A2C9-78BA891C657F}" name="Tabla13" displayName="Tabla13" ref="A1:K90" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:K90" xr:uid="{D8A1B379-27BE-4742-A2C9-78BA891C657F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F8889F9A-280D-4787-9477-372D7233221A}" name="Column_Name" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{F8889F9A-280D-4787-9477-372D7233221A}" name="Factura" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{141B70A5-533C-4BBF-A722-D2F3B7EE819E}" name="Selector" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{026C4145-E88A-41B7-8A4E-30C94C2CE08C}" name="Check" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{677A3655-A337-4F06-827C-9F4831A364D0}" name="Format" dataDxfId="33"/>
@@ -983,7 +991,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2B567505-B769-4150-B819-6199B19FE626}" name="Tabla14" displayName="Tabla14" ref="A1:K90" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:K90" xr:uid="{2B567505-B769-4150-B819-6199B19FE626}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{242B5752-04B2-4543-95BA-3FDD63CC68A4}" name="Column_Name" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{242B5752-04B2-4543-95BA-3FDD63CC68A4}" name="Factura" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{4FDEACEE-364D-4773-909C-EFEAE9DEB634}" name="Selector" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{190BC9B5-6C18-47C9-B323-6EFF5F294201}" name="Check" dataDxfId="21"/>
     <tableColumn id="6" xr3:uid="{543D68BB-E6AA-4058-8814-5877AE15A562}" name="Format" dataDxfId="20"/>
@@ -1003,7 +1011,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C0A7AA47-653F-47D9-953A-B3C75C3347AC}" name="Tabla15" displayName="Tabla15" ref="A1:K90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K90" xr:uid="{C0A7AA47-653F-47D9-953A-B3C75C3347AC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6F2C20DA-794F-40FF-B0C0-A12962E6B8C8}" name="Column_Name" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6F2C20DA-794F-40FF-B0C0-A12962E6B8C8}" name="Factura" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F2A17ACE-34EF-4B2B-9841-533293DF54B3}" name="Selector" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{1B3B0BCB-2108-438F-B046-80FB2147D93E}" name="Check" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{4373F638-D5AB-425C-9D51-F2BA20BBE662}" name="Format" dataDxfId="7"/>
@@ -1284,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1302,106 +1310,106 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1409,19 +1417,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1429,16 +1437,16 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1446,60 +1454,60 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1507,36 +1515,36 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1544,16 +1552,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1561,31 +1569,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1593,16 +1601,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1610,339 +1618,420 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>-3</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>-3</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
-      <c r="I31">
-        <v>-3</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1959,14 +2048,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375777A-50BC-4FCF-B8D1-C0BC6E62E220}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
@@ -1977,43 +2066,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2025,7 +2114,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2037,7 +2126,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2046,16 +2135,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2069,10 +2158,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2086,7 +2175,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2095,16 +2184,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2117,10 +2206,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2133,13 +2222,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2153,13 +2242,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2173,16 +2262,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2198,7 +2287,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2212,7 +2301,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2226,7 +2315,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2240,7 +2329,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2254,10 +2343,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2272,10 +2361,10 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2288,16 +2377,16 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2311,22 +2400,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2338,16 +2427,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2363,7 +2452,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2377,7 +2466,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2391,7 +2480,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2405,7 +2494,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2419,7 +2508,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2433,7 +2522,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2447,7 +2536,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2461,16 +2550,16 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2481,16 +2570,16 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2501,16 +2590,16 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2521,7 +2610,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2534,7 +2623,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2547,7 +2636,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2560,7 +2649,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2574,7 +2663,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2588,7 +2677,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2602,7 +2691,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2616,7 +2705,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2629,7 +2718,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2642,7 +2731,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2655,7 +2744,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2668,7 +2757,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2681,7 +2770,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2694,7 +2783,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2707,7 +2796,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2720,7 +2809,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2733,7 +2822,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2746,7 +2835,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2759,7 +2848,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2772,7 +2861,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2785,7 +2874,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2798,7 +2887,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2811,7 +2900,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2824,7 +2913,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2837,7 +2926,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2850,7 +2939,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2863,7 +2952,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2876,7 +2965,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2889,7 +2978,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2902,10 +2991,17 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2915,10 +3011,17 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2928,10 +3031,17 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -2941,7 +3051,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2954,7 +3064,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2967,7 +3077,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2980,10 +3090,17 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2993,10 +3110,17 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3006,10 +3130,17 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3019,7 +3150,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3032,7 +3163,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3045,7 +3176,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3058,7 +3189,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3071,7 +3202,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3084,7 +3215,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3097,7 +3228,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3110,7 +3241,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3123,7 +3254,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3136,7 +3267,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3149,7 +3280,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3162,7 +3293,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3175,7 +3306,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3188,7 +3319,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3201,7 +3332,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3214,7 +3345,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3227,7 +3358,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3240,7 +3371,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3253,7 +3384,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3266,7 +3397,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3279,7 +3410,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3304,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98519-5164-4E6D-BDC6-A98A4635A150}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3316,43 +3447,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3364,7 +3495,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3376,7 +3507,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3385,19 +3516,19 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3410,10 +3541,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3425,7 +3556,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3434,16 +3565,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3456,10 +3587,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3472,13 +3603,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3492,13 +3623,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3512,16 +3643,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3535,7 +3666,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3549,7 +3680,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3563,7 +3694,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3577,7 +3708,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3591,10 +3722,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3609,13 +3740,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3629,7 +3760,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3639,21 +3770,21 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3667,16 +3798,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3690,16 +3821,16 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3713,16 +3844,16 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3736,7 +3867,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1"/>
       <c r="J24" s="1"/>
@@ -3744,16 +3875,16 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3767,16 +3898,16 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -3790,16 +3921,16 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3813,7 +3944,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -3827,147 +3958,174 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1">
-        <v>21</v>
-      </c>
+      <c r="H29" s="1">
+        <v>-6</v>
+      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>21</v>
-      </c>
+      <c r="H30" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <v>21</v>
-      </c>
+      <c r="H31" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>-3</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>-2</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>-1</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3980,7 +4138,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3993,7 +4151,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4006,7 +4164,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4019,7 +4177,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4032,7 +4190,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4045,7 +4203,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4058,7 +4216,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4071,7 +4229,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4084,7 +4242,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4097,7 +4255,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4110,7 +4268,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4123,7 +4281,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4136,7 +4294,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4149,7 +4307,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4162,7 +4320,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4175,7 +4333,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4188,7 +4346,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4201,7 +4359,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4214,7 +4372,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4227,7 +4385,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4240,163 +4398,271 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1">
+        <v>-6</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <v>-5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>-4</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>-3</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>-2</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>-1</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>-6</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>-5</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <v>-4</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>-3</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>-2</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>-1</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4409,7 +4675,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4422,7 +4688,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4435,7 +4701,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4448,7 +4714,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4461,7 +4727,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4474,85 +4740,139 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>-6</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>-5</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <v>-4</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>-3</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>-2</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <v>-1</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4565,7 +4885,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4578,7 +4898,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4591,7 +4911,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4604,7 +4924,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4617,7 +4937,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4642,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4655,43 +4975,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4704,7 +5024,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4717,7 +5037,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4726,16 +5046,16 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4748,10 +5068,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4764,7 +5084,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4773,19 +5093,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -4799,13 +5119,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4819,13 +5139,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -4839,13 +5159,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -4859,16 +5179,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -4882,7 +5202,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -4896,7 +5216,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -4910,7 +5230,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -4924,7 +5244,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -4938,10 +5258,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4954,10 +5274,10 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4970,10 +5290,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -4987,7 +5307,7 @@
     </row>
     <row r="20" spans="1:11" ht="13.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4998,21 +5318,21 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -5026,7 +5346,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -5040,7 +5360,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -5054,7 +5374,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -5068,7 +5388,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -5082,7 +5402,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5096,7 +5416,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5110,7 +5430,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -5124,42 +5444,36 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1">
-        <v>4</v>
-      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5170,16 +5484,16 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5190,7 +5504,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5203,7 +5517,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5216,7 +5530,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5229,7 +5543,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5242,7 +5556,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5255,7 +5569,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5268,7 +5582,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5281,7 +5595,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5294,7 +5608,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5307,7 +5621,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5320,7 +5634,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5333,7 +5647,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5346,7 +5660,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5359,7 +5673,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5372,7 +5686,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5385,7 +5699,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5398,7 +5712,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5411,7 +5725,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5424,7 +5738,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5437,7 +5751,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5450,7 +5764,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5463,7 +5777,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5476,7 +5790,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5489,7 +5803,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5502,7 +5816,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5515,7 +5829,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5528,7 +5842,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5541,7 +5855,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5554,7 +5868,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5567,10 +5881,17 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -5580,10 +5901,17 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -5593,10 +5921,17 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -5606,7 +5941,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5619,7 +5954,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5632,7 +5967,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5645,10 +5980,17 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -5658,10 +6000,17 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -5671,10 +6020,17 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -5684,7 +6040,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5697,7 +6053,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5710,7 +6066,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5723,7 +6079,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5736,7 +6092,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5749,7 +6105,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5762,7 +6118,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5775,7 +6131,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5788,7 +6144,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5801,7 +6157,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5814,7 +6170,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5827,7 +6183,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5840,7 +6196,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5853,7 +6209,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5866,7 +6222,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5879,7 +6235,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5892,7 +6248,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5905,7 +6261,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5918,7 +6274,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5931,7 +6287,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5944,7 +6300,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589C8819-F56B-472E-B326-138ACF4821C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609DFEAF-593D-492B-AC91-81616B0DA3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="180">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,9 +223,6 @@
     <t xml:space="preserve">Electricidad:del </t>
   </si>
   <si>
-    <t>CódigoCUPS:</t>
-  </si>
-  <si>
     <t>Total IVA 21%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,6 +587,33 @@
   </si>
   <si>
     <t>Lectura Anterior xYYx</t>
+  </si>
+  <si>
+    <t>CódigoxYYxCUPS:</t>
+  </si>
+  <si>
+    <t>Peaje de transporte y distribución:xYYx</t>
+  </si>
+  <si>
+    <t>Exceso de ReactivaxYYx</t>
+  </si>
+  <si>
+    <t>Potencias máx. demandadas último año:xYYx</t>
+  </si>
+  <si>
+    <t>Potencias Contratadas:xYYx</t>
+  </si>
+  <si>
+    <t>Excesos de potencia (P1)xYYx</t>
+  </si>
+  <si>
+    <t>Excesos de potencia (P2)xYYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kWh</t>
+  </si>
+  <si>
+    <t>kW</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1334,31 +1358,31 @@
         <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1371,7 +1395,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1379,15 +1403,15 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -1395,7 +1419,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1403,7 +1427,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -1417,7 +1441,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -1437,7 +1461,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1454,27 +1478,27 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -1490,15 +1514,15 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1515,7 +1539,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1530,12 +1554,12 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1552,7 +1576,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1569,22 +1593,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1601,10 +1625,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1618,13 +1642,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1635,13 +1659,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1652,13 +1676,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1669,158 +1693,158 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1831,13 +1855,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1848,13 +1872,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1865,28 +1889,28 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1897,13 +1921,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1914,13 +1938,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1931,107 +1955,107 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2048,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375777A-50BC-4FCF-B8D1-C0BC6E62E220}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2067,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2091,18 +2115,18 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2114,7 +2138,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2126,7 +2150,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2135,7 +2159,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -2144,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2158,7 +2182,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
@@ -2175,7 +2199,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2184,13 +2208,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -2206,7 +2230,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -2222,7 +2246,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>49</v>
@@ -2242,7 +2266,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>49</v>
@@ -2262,10 +2286,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -2287,7 +2311,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2301,7 +2325,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2315,7 +2339,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2329,7 +2353,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2343,7 +2367,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>36</v>
@@ -2377,7 +2401,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
@@ -2386,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2400,22 +2424,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2427,10 +2451,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -2452,7 +2476,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2466,7 +2490,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2480,7 +2504,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2494,7 +2518,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2508,7 +2532,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2522,7 +2546,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2536,7 +2560,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2550,13 +2574,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2570,13 +2594,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2590,13 +2614,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2610,7 +2634,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2623,7 +2647,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2636,7 +2660,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2649,7 +2673,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2663,7 +2687,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2677,7 +2701,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2691,7 +2715,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2705,7 +2729,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2718,7 +2742,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2731,7 +2755,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2744,7 +2768,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2757,7 +2781,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2770,7 +2794,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2783,7 +2807,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2796,7 +2820,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2809,7 +2833,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2822,7 +2846,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2835,7 +2859,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2848,7 +2872,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2861,7 +2885,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2874,7 +2898,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2887,7 +2911,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2900,7 +2924,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2913,7 +2937,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2926,7 +2950,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2939,7 +2963,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2952,7 +2976,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2965,7 +2989,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2978,7 +3002,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2991,13 +3015,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -3011,13 +3035,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3031,13 +3055,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -3051,7 +3075,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3064,7 +3088,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3077,7 +3101,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3090,13 +3114,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3110,13 +3134,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3130,13 +3154,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3150,7 +3174,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3163,7 +3187,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3176,7 +3200,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3189,7 +3213,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3202,7 +3226,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3215,7 +3239,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3228,7 +3252,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3241,7 +3265,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3254,7 +3278,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3267,7 +3291,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3280,7 +3304,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3293,7 +3317,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3306,7 +3330,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3319,7 +3343,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3332,7 +3356,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3345,7 +3369,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3358,7 +3382,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3371,7 +3395,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3384,7 +3408,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3397,7 +3421,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3410,7 +3434,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3435,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98519-5164-4E6D-BDC6-A98A4635A150}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3448,7 +3472,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3472,18 +3496,18 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3495,7 +3519,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3507,7 +3531,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3516,7 +3540,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3541,7 +3565,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
@@ -3556,7 +3580,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3565,13 +3589,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3587,7 +3611,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -3603,7 +3627,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3623,7 +3647,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3643,16 +3667,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3666,7 +3690,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3680,7 +3704,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3694,7 +3718,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3708,7 +3732,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3722,10 +3746,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3760,7 +3784,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3770,12 +3794,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -3798,10 +3822,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -3821,7 +3845,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -3844,7 +3868,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -3867,15 +3891,23 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -3898,7 +3930,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -3921,7 +3953,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -3944,7 +3976,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -3958,13 +3990,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -3980,13 +4012,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4002,13 +4034,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -4024,13 +4056,13 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4046,13 +4078,13 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4068,13 +4100,13 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -4090,42 +4122,42 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4138,7 +4170,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4151,7 +4183,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4164,7 +4196,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4177,7 +4209,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4190,7 +4222,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4203,7 +4235,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4216,7 +4248,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4229,7 +4261,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4242,7 +4274,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4255,7 +4287,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4268,7 +4300,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4281,7 +4313,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4294,7 +4326,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4307,7 +4339,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4320,7 +4352,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4333,7 +4365,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4346,7 +4378,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4359,7 +4391,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4372,7 +4404,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4385,7 +4417,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4398,13 +4430,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4420,13 +4452,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4442,13 +4474,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4464,13 +4496,13 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4486,13 +4518,13 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4508,13 +4540,13 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4530,13 +4562,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -4552,13 +4584,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -4574,13 +4606,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -4596,13 +4628,13 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -4618,13 +4650,13 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -4640,13 +4672,13 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -4662,7 +4694,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4675,7 +4707,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4688,7 +4720,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4701,7 +4733,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4714,7 +4746,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4727,7 +4759,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4740,13 +4772,13 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -4762,13 +4794,13 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -4784,13 +4816,13 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -4806,13 +4838,13 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4828,13 +4860,13 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
@@ -4850,13 +4882,13 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -4872,7 +4904,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4885,7 +4917,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4898,7 +4930,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4911,7 +4943,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4924,7 +4956,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4937,7 +4969,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4962,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -4976,7 +5008,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5000,18 +5032,18 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5024,7 +5056,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5037,7 +5069,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5046,7 +5078,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5068,13 +5100,17 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5084,7 +5120,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5093,13 +5129,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -5119,7 +5155,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -5139,10 +5175,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -5159,10 +5195,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -5179,7 +5215,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -5202,7 +5238,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -5216,7 +5252,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -5230,7 +5266,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -5244,7 +5280,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -5258,7 +5294,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -5290,10 +5326,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -5307,7 +5343,7 @@
     </row>
     <row r="20" spans="1:11" ht="13.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5318,12 +5354,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -5346,7 +5382,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -5360,11 +5396,18 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5374,11 +5417,18 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5388,7 +5438,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -5402,7 +5452,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5416,7 +5466,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5430,7 +5480,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -5444,19 +5494,23 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5464,19 +5518,23 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5484,19 +5542,23 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -5504,7 +5566,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5517,7 +5579,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5530,7 +5592,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5543,7 +5605,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5556,7 +5618,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5569,7 +5631,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5582,7 +5644,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5595,7 +5657,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5608,7 +5670,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5621,12 +5683,23 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -5634,7 +5707,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5647,12 +5720,23 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -5660,7 +5744,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5673,7 +5757,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5686,7 +5770,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5699,12 +5783,23 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -5712,7 +5807,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5725,12 +5820,23 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -5738,7 +5844,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5751,7 +5857,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5764,7 +5870,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5777,7 +5883,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5790,7 +5896,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5803,7 +5909,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5816,7 +5922,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5829,7 +5935,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5842,7 +5948,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5855,7 +5961,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5868,7 +5974,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5881,13 +5987,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -5901,13 +6007,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -5921,13 +6027,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -5941,7 +6047,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5954,7 +6060,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5967,7 +6073,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5980,13 +6086,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -6000,13 +6106,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -6020,13 +6126,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -6040,7 +6146,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6053,7 +6159,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6066,7 +6172,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6079,7 +6185,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6092,7 +6198,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6105,7 +6211,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6118,7 +6224,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -6131,7 +6237,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6144,7 +6250,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6157,7 +6263,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6170,7 +6276,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6183,7 +6289,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6196,7 +6302,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6209,7 +6315,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6222,7 +6328,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6235,7 +6341,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6248,7 +6354,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6261,7 +6367,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6274,7 +6380,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6287,7 +6393,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6300,7 +6406,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609DFEAF-593D-492B-AC91-81616B0DA3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757E3BE-1919-4DE7-9608-17C1995AD664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="182">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,17 +121,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>al</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOTAL FACTURA</t>
-  </si>
-  <si>
     <t>CNAE:</t>
   </si>
   <si>
@@ -154,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fecha y Nº Factura:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Titular:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,30 +209,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Electricidad:del </t>
-  </si>
-  <si>
     <t>Total IVA 21%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Totalapagar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodo de Facturación:del </t>
   </si>
   <si>
     <t>limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Subtotal</t>
-  </si>
-  <si>
     <t>TipoPrecio</t>
   </si>
   <si>
@@ -532,9 +508,6 @@
     <t>CIF/NIF:</t>
   </si>
   <si>
-    <t>VxRx-TxRx</t>
-  </si>
-  <si>
     <t>Descuentos</t>
   </si>
   <si>
@@ -614,6 +587,36 @@
   </si>
   <si>
     <t>kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricidad:xYYxdel </t>
+  </si>
+  <si>
+    <t>Fecha y Nº Factura:xYYx</t>
+  </si>
+  <si>
+    <t>xYYx    /    xYYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo de Facturación:xYYxdel </t>
+  </si>
+  <si>
+    <t>TotalxYYxaxYYxpagar</t>
+  </si>
+  <si>
+    <t>TOTAL FACTURAxYYx</t>
+  </si>
+  <si>
+    <t>Impuesto EléctricoxYYx</t>
+  </si>
+  <si>
+    <t>Equipos de medidaxYYx</t>
+  </si>
+  <si>
+    <t>xYYxSubtotalxYYx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA (5 %) de </t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1349,40 +1352,40 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1390,50 +1393,50 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1441,19 +1444,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1478,30 +1481,30 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1509,20 +1512,20 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1554,12 +1557,12 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1593,22 +1596,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1625,10 +1628,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1642,13 +1645,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1659,13 +1662,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1676,13 +1679,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1693,158 +1696,158 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1855,13 +1858,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1872,13 +1875,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1889,28 +1892,28 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1921,13 +1924,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1938,13 +1941,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1955,107 +1958,107 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2073,7 +2076,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2091,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2106,27 +2109,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2138,7 +2141,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2159,7 +2162,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -2168,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2182,10 +2185,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2208,16 +2211,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2230,10 +2233,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2246,10 +2249,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2266,10 +2269,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2286,10 +2289,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -2311,7 +2314,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2367,10 +2370,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2388,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
@@ -2410,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2424,22 +2427,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2451,10 +2454,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -2490,7 +2493,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2546,7 +2549,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2574,13 +2577,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2594,13 +2597,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2614,13 +2617,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2634,7 +2637,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
@@ -2687,7 +2690,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
@@ -2715,7 +2718,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2768,7 +2771,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2781,7 +2784,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2807,7 +2810,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2898,7 +2901,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2963,7 +2966,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3002,7 +3005,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3015,13 +3018,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -3035,13 +3038,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3055,13 +3058,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3088,7 +3091,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3114,13 +3117,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3134,13 +3137,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3154,13 +3157,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3187,7 +3190,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3200,7 +3203,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3213,7 +3216,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3278,7 +3281,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3304,7 +3307,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3330,7 +3333,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3395,7 +3398,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3408,7 +3411,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3434,7 +3437,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3472,7 +3475,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3487,27 +3490,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3540,7 +3543,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3549,10 +3552,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3565,10 +3568,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3580,7 +3583,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3589,13 +3592,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -3627,13 +3630,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3647,13 +3650,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -3667,16 +3670,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -3718,7 +3721,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -3746,10 +3749,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3767,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3794,12 +3797,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -3868,7 +3871,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -3891,13 +3894,13 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -3976,7 +3979,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -3990,13 +3993,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4012,13 +4015,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -4034,13 +4037,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -4056,13 +4059,13 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -4078,13 +4081,13 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4100,13 +4103,13 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -4122,42 +4125,42 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4170,7 +4173,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4183,7 +4186,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4196,7 +4199,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4209,7 +4212,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4222,7 +4225,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4235,7 +4238,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4261,7 +4264,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4274,7 +4277,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4300,7 +4303,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4313,7 +4316,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4326,7 +4329,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4352,7 +4355,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4365,7 +4368,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4404,7 +4407,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4430,13 +4433,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4452,13 +4455,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4474,13 +4477,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4496,13 +4499,13 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4518,13 +4521,13 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4540,13 +4543,13 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4562,13 +4565,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -4584,13 +4587,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -4606,13 +4609,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -4628,13 +4631,13 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -4650,13 +4653,13 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -4672,13 +4675,13 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -4694,7 +4697,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4707,7 +4710,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4720,7 +4723,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4733,7 +4736,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4746,7 +4749,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4759,7 +4762,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4772,13 +4775,13 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -4794,13 +4797,13 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E80" s="1">
         <v>4</v>
@@ -4816,13 +4819,13 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E81" s="1">
         <v>4</v>
@@ -4838,13 +4841,13 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4860,13 +4863,13 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
@@ -4882,13 +4885,13 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4917,7 +4920,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4930,7 +4933,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4943,7 +4946,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4956,7 +4959,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4969,7 +4972,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4994,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5008,7 +5011,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5023,27 +5026,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5078,7 +5081,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -5087,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5100,13 +5103,13 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5129,19 +5132,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5155,13 +5158,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5175,13 +5178,13 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -5195,13 +5198,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -5252,7 +5255,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -5280,7 +5283,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -5294,10 +5297,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5313,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5326,43 +5329,53 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>-2</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="13.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -5382,7 +5395,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -5396,14 +5409,14 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5417,14 +5430,14 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5438,11 +5451,18 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5452,7 +5472,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -5466,7 +5489,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5480,7 +5503,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -5494,19 +5517,19 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5518,19 +5541,19 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5542,19 +5565,19 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5566,7 +5589,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5579,7 +5602,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5592,7 +5615,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5605,7 +5628,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5618,7 +5641,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5631,7 +5654,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5644,7 +5667,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5657,7 +5680,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5670,7 +5693,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5683,19 +5706,19 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5707,7 +5730,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5720,19 +5743,19 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5744,7 +5767,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5757,7 +5780,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5770,7 +5793,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5783,19 +5806,19 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5807,7 +5830,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5820,19 +5843,19 @@
     </row>
     <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -5844,7 +5867,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5857,7 +5880,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5870,7 +5893,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5883,7 +5906,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5896,7 +5919,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5909,7 +5932,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5922,7 +5945,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5935,7 +5958,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5948,7 +5971,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5961,7 +5984,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5974,7 +5997,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5987,13 +6010,13 @@
     </row>
     <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -6007,13 +6030,13 @@
     </row>
     <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -6027,13 +6050,13 @@
     </row>
     <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -6047,7 +6070,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -6060,7 +6083,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -6073,7 +6096,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -6086,13 +6109,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -6106,13 +6129,13 @@
     </row>
     <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -6126,13 +6149,13 @@
     </row>
     <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -6146,7 +6169,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6159,7 +6182,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -6172,7 +6195,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -6185,7 +6208,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -6198,7 +6221,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -6211,7 +6234,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -6224,7 +6247,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -6237,7 +6260,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6250,7 +6273,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -6263,7 +6286,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -6276,7 +6299,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -6289,7 +6312,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -6302,7 +6325,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6315,7 +6338,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -6328,7 +6351,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -6341,7 +6364,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -6354,7 +6377,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -6367,7 +6390,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -6380,7 +6403,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -6393,7 +6416,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6406,7 +6429,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>

--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757E3BE-1919-4DE7-9608-17C1995AD664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B68E26-6FC1-4FBE-8EFC-554B4741CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="nexus" sheetId="3" r:id="rId3"/>
     <sheet name="repsol" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="183">
   <si>
     <t>Selector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,9 +552,6 @@
     <t>Consumo:xYYxValle</t>
   </si>
   <si>
-    <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx</t>
-  </si>
-  <si>
     <t>Lectura Actual xYYx</t>
   </si>
   <si>
@@ -565,18 +561,9 @@
     <t>CódigoxYYxCUPS:</t>
   </si>
   <si>
-    <t>Peaje de transporte y distribución:xYYx</t>
-  </si>
-  <si>
     <t>Exceso de ReactivaxYYx</t>
   </si>
   <si>
-    <t>Potencias máx. demandadas último año:xYYx</t>
-  </si>
-  <si>
-    <t>Potencias Contratadas:xYYx</t>
-  </si>
-  <si>
     <t>Excesos de potencia (P1)xYYx</t>
   </si>
   <si>
@@ -592,31 +579,55 @@
     <t xml:space="preserve">Electricidad:xYYxdel </t>
   </si>
   <si>
-    <t>Fecha y Nº Factura:xYYx</t>
-  </si>
-  <si>
     <t>xYYx    /    xYYx</t>
   </si>
   <si>
-    <t xml:space="preserve">Periodo de Facturación:xYYxdel </t>
-  </si>
-  <si>
     <t>TotalxYYxaxYYxpagar</t>
   </si>
   <si>
     <t>TOTAL FACTURAxYYx</t>
   </si>
   <si>
-    <t>Impuesto EléctricoxYYx</t>
-  </si>
-  <si>
-    <t>Equipos de medidaxYYx</t>
-  </si>
-  <si>
     <t>xYYxSubtotalxYYx</t>
   </si>
   <si>
     <t xml:space="preserve">IVA (5 %) de </t>
+  </si>
+  <si>
+    <t>CUPS:&amp;&amp;Identificador:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peaje de transporte y distribución:xYYx&amp;&amp;Peatge de transport i distribució:xYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fecha y Nº Factura:xYYx&amp;&amp;Data i núm. factura:xYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo de Facturación:xYYxdel &amp;&amp;Període de facturació:xYYxdel </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impuesto EléctricoxYYx&amp;&amp;Impost elèctricxYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipos de medidaxYYx&amp;&amp;Equips de mesuraxYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activa xYYx: xYYxConsumo xYYxdel xYYxperiodo xYYx(Real) xYYxhastaxYYx&amp;&amp;Consum xYYxdel xYYxperíode xYYx(Real) xYYxfins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potencias máx. demandadas último año:xYYx&amp;&amp;Potències màximes demandades últim any:xYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potencias Contratadas:xYYx&amp;&amp;Potències contractades:xYYx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -627,13 +638,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -641,14 +652,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,7 +681,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1323,16 +1334,16 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2079,17 +2090,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2127,7 +2138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -2139,7 +2150,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -2151,7 +2162,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -2166,12 +2177,12 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2183,7 +2194,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -2200,7 +2211,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -2215,7 +2226,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -2231,7 +2242,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2247,12 +2258,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2267,12 +2278,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2287,12 +2298,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -2312,7 +2323,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -2326,7 +2337,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2340,7 +2351,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -2354,7 +2365,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2368,7 +2379,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -2386,7 +2397,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -2402,7 +2413,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -2425,7 +2436,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -2452,12 +2463,12 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -2477,7 +2488,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -2491,7 +2502,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -2505,7 +2516,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -2519,7 +2530,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2533,7 +2544,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -2547,7 +2558,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -2561,7 +2572,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -2575,7 +2586,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2595,7 +2606,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2615,7 +2626,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -2635,7 +2646,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -2648,7 +2659,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -2661,7 +2672,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +2685,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -2688,7 +2699,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
@@ -2702,7 +2713,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -2716,7 +2727,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -2730,7 +2741,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -2743,7 +2754,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -2756,7 +2767,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -2769,7 +2780,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -2782,7 +2793,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -2795,7 +2806,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
@@ -2808,7 +2819,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -2821,7 +2832,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -2834,7 +2845,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
@@ -2847,7 +2858,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -2860,7 +2871,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
@@ -2873,7 +2884,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -2886,7 +2897,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -2899,7 +2910,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
@@ -2912,7 +2923,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +2936,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -2938,7 +2949,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -2951,7 +2962,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +2975,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -2977,7 +2988,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -2990,7 +3001,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -3003,7 +3014,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>102</v>
       </c>
@@ -3016,7 +3027,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -3036,7 +3047,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
@@ -3056,7 +3067,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>105</v>
       </c>
@@ -3076,7 +3087,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -3089,7 +3100,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -3102,7 +3113,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -3115,7 +3126,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -3135,7 +3146,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
@@ -3155,7 +3166,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>111</v>
       </c>
@@ -3175,7 +3186,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>112</v>
       </c>
@@ -3188,7 +3199,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -3201,7 +3212,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -3214,7 +3225,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>115</v>
       </c>
@@ -3227,7 +3238,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -3240,7 +3251,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -3253,7 +3264,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -3266,7 +3277,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>119</v>
       </c>
@@ -3279,7 +3290,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -3292,7 +3303,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>121</v>
       </c>
@@ -3305,7 +3316,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>122</v>
       </c>
@@ -3318,7 +3329,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
@@ -3331,7 +3342,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>124</v>
       </c>
@@ -3344,7 +3355,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -3357,7 +3368,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>126</v>
       </c>
@@ -3370,7 +3381,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
@@ -3383,7 +3394,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>128</v>
       </c>
@@ -3396,7 +3407,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
@@ -3409,7 +3420,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>130</v>
       </c>
@@ -3422,7 +3433,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>131</v>
       </c>
@@ -3435,7 +3446,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>132</v>
       </c>
@@ -3466,11 +3477,11 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3508,7 +3519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -3520,7 +3531,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -3532,7 +3543,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -3547,7 +3558,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3566,7 +3577,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -3581,7 +3592,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3607,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -3612,7 +3623,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -3628,7 +3639,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -3648,7 +3659,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3668,7 +3679,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -3691,7 +3702,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -3705,7 +3716,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -3719,7 +3730,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -3733,7 +3744,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -3747,7 +3758,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -3765,7 +3776,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3796,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -3800,7 +3811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -3823,7 +3834,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -3846,7 +3857,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -3869,7 +3880,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -3892,12 +3903,12 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>148</v>
@@ -3908,7 +3919,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -3931,7 +3942,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -3954,7 +3965,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -3977,7 +3988,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -3991,7 +4002,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -4013,7 +4024,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4046,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -4057,7 +4068,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -4079,7 +4090,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -4101,7 +4112,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -4123,42 +4134,42 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -4171,7 +4182,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -4184,7 +4195,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -4197,7 +4208,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -4210,7 +4221,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
@@ -4223,7 +4234,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -4236,7 +4247,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -4249,7 +4260,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
@@ -4262,7 +4273,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -4275,7 +4286,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
@@ -4288,7 +4299,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -4301,7 +4312,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -4314,7 +4325,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
@@ -4327,7 +4338,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -4340,7 +4351,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -4353,7 +4364,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -4366,7 +4377,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -4379,7 +4390,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -4392,7 +4403,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -4405,7 +4416,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -4418,7 +4429,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>102</v>
       </c>
@@ -4431,7 +4442,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -4453,7 +4464,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
@@ -4475,7 +4486,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>105</v>
       </c>
@@ -4497,7 +4508,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -4519,7 +4530,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -4541,7 +4552,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -4563,7 +4574,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -4585,7 +4596,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
@@ -4607,7 +4618,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>111</v>
       </c>
@@ -4629,7 +4640,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>112</v>
       </c>
@@ -4651,7 +4662,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -4673,7 +4684,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -4695,7 +4706,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>115</v>
       </c>
@@ -4708,7 +4719,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -4721,7 +4732,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -4734,7 +4745,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -4747,7 +4758,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>119</v>
       </c>
@@ -4760,7 +4771,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -4773,7 +4784,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>121</v>
       </c>
@@ -4795,7 +4806,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>122</v>
       </c>
@@ -4817,7 +4828,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
@@ -4839,7 +4850,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>124</v>
       </c>
@@ -4861,7 +4872,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -4883,7 +4894,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>126</v>
       </c>
@@ -4905,7 +4916,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
@@ -4918,7 +4929,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>128</v>
       </c>
@@ -4931,7 +4942,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
@@ -4944,7 +4955,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>130</v>
       </c>
@@ -4957,7 +4968,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>131</v>
       </c>
@@ -4970,7 +4981,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>132</v>
       </c>
@@ -4997,16 +5008,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5044,7 +5055,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -5057,7 +5068,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -5070,7 +5081,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -5085,12 +5096,12 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5101,12 +5112,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>148</v>
@@ -5121,7 +5132,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -5136,15 +5147,15 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5156,15 +5167,15 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -5176,12 +5187,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -5196,12 +5207,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -5216,12 +5227,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -5239,7 +5250,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -5253,7 +5264,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -5267,7 +5278,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -5281,7 +5292,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -5295,7 +5306,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -5311,7 +5322,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -5327,16 +5338,16 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -5350,12 +5361,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="13.8" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
@@ -5370,12 +5381,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -5393,7 +5404,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -5407,12 +5418,12 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
@@ -5428,12 +5439,12 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
@@ -5449,7 +5460,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -5470,7 +5481,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -5487,7 +5498,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -5501,7 +5512,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -5515,12 +5526,12 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>148</v>
@@ -5529,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -5539,12 +5550,12 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>148</v>
@@ -5553,7 +5564,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -5563,12 +5574,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>148</v>
@@ -5577,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -5587,7 +5598,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -5600,7 +5611,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -5613,7 +5624,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -5626,7 +5637,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -5639,7 +5650,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
@@ -5652,7 +5663,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -5665,7 +5676,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -5678,7 +5689,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -5691,7 +5702,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -5704,12 +5715,12 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>148</v>
@@ -5718,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5728,7 +5739,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -5741,12 +5752,12 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>148</v>
@@ -5755,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5765,7 +5776,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
@@ -5778,7 +5789,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -5791,7 +5802,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -5804,12 +5815,12 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>148</v>
@@ -5818,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -5828,7 +5839,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -5841,12 +5852,12 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>148</v>
@@ -5855,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -5865,7 +5876,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -5878,7 +5889,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -5891,7 +5902,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
@@ -5904,7 +5915,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -5917,7 +5928,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -5930,7 +5941,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -5943,7 +5954,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -5956,7 +5967,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -5969,7 +5980,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -5982,7 +5993,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -5995,7 +6006,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>102</v>
       </c>
@@ -6008,12 +6019,12 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>148</v>
@@ -6028,12 +6039,12 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>148</v>
@@ -6048,12 +6059,12 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>148</v>
@@ -6068,7 +6079,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -6081,7 +6092,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -6094,7 +6105,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -6107,12 +6118,12 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>148</v>
@@ -6127,12 +6138,12 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>148</v>
@@ -6147,12 +6158,12 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>148</v>
@@ -6167,7 +6178,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>112</v>
       </c>
@@ -6180,7 +6191,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -6193,7 +6204,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -6206,7 +6217,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>115</v>
       </c>
@@ -6219,7 +6230,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -6232,7 +6243,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -6245,7 +6256,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -6258,7 +6269,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>119</v>
       </c>
@@ -6271,7 +6282,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -6284,7 +6295,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>121</v>
       </c>
@@ -6297,7 +6308,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>122</v>
       </c>
@@ -6310,7 +6321,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
@@ -6323,7 +6334,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>124</v>
       </c>
@@ -6336,7 +6347,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -6349,7 +6360,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>126</v>
       </c>
@@ -6362,7 +6373,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
@@ -6375,7 +6386,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>128</v>
       </c>
@@ -6388,7 +6399,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
@@ -6401,7 +6412,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>130</v>
       </c>
@@ -6414,7 +6425,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>131</v>
       </c>
@@ -6427,7 +6438,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>132</v>
       </c>
@@ -6444,8 +6455,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/archivos/PdfToExcel_Parametros.xlsx
+++ b/archivos/PdfToExcel_Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyect\PdfToExcel\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EterEnergy_PdfToExcel\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B68E26-6FC1-4FBE-8EFC-554B4741CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8DE1C-C960-40E7-89D8-7A3FC1AE46E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="endesa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="nexus" sheetId="3" r:id="rId3"/>
     <sheet name="repsol" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -638,13 +639,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,14 +653,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -681,7 +682,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1334,16 +1335,16 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2090,17 +2091,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2138,7 +2139,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -2150,7 +2151,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -2162,7 +2163,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -2177,7 +2178,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2194,7 +2195,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -2211,7 +2212,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -2242,7 +2243,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2258,7 +2259,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -2278,7 +2279,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -2298,7 +2299,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -2365,7 +2366,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2379,7 +2380,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -2436,7 +2437,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -2463,7 +2464,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -2502,7 +2503,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -2516,7 +2517,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -2530,7 +2531,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2544,7 +2545,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -2558,7 +2559,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -2572,7 +2573,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -2586,7 +2587,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2606,7 +2607,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2626,7 +2627,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -2646,7 +2647,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -2659,7 +2660,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -2672,7 +2673,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -2685,7 +2686,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -2699,7 +2700,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +2714,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -2727,7 +2728,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -2741,7 +2742,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -2754,7 +2755,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -2767,7 +2768,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -2780,7 +2781,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -2806,7 +2807,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
@@ -2819,7 +2820,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -2832,7 +2833,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -2845,7 +2846,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -2871,7 +2872,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
@@ -2884,7 +2885,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -2897,7 +2898,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -2910,7 +2911,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
@@ -2923,7 +2924,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -2936,7 +2937,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -2949,7 +2950,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -2962,7 +2963,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -2975,7 +2976,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -2988,7 +2989,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>102</v>
       </c>
@@ -3027,7 +3028,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -3047,7 +3048,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
@@ -3067,7 +3068,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>105</v>
       </c>
@@ -3087,7 +3088,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -3100,7 +3101,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -3113,7 +3114,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -3126,7 +3127,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -3146,7 +3147,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
@@ -3166,7 +3167,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>111</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>112</v>
       </c>
@@ -3199,7 +3200,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -3212,7 +3213,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -3225,7 +3226,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>115</v>
       </c>
@@ -3238,7 +3239,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -3251,7 +3252,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -3264,7 +3265,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -3277,7 +3278,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>119</v>
       </c>
@@ -3290,7 +3291,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -3303,7 +3304,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>121</v>
       </c>
@@ -3316,7 +3317,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>122</v>
       </c>
@@ -3329,7 +3330,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
@@ -3342,7 +3343,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>124</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -3368,7 +3369,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>126</v>
       </c>
@@ -3381,7 +3382,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
@@ -3394,7 +3395,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>128</v>
       </c>
@@ -3407,7 +3408,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
@@ -3420,7 +3421,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>130</v>
       </c>
@@ -3433,7 +3434,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>131</v>
       </c>
@@ -3446,7 +3447,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>132</v>
       </c>
@@ -3477,11 +3478,11 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3519,7 +3520,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -3531,7 +3532,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -3543,7 +3544,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -3558,7 +3559,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -3592,7 +3593,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -3607,7 +3608,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -3623,7 +3624,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -3639,7 +3640,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -3659,7 +3660,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3679,7 +3680,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -3702,7 +3703,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -3716,7 +3717,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -3730,7 +3731,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -3744,7 +3745,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -3758,7 +3759,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -3776,7 +3777,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3797,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -3834,7 +3835,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -3857,7 +3858,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -3880,7 +3881,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -3903,7 +3904,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -3919,7 +3920,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -3942,7 +3943,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -3965,7 +3966,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -4002,7 +4003,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -4024,7 +4025,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -4068,7 +4069,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -4090,7 +4091,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -4112,7 +4113,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -4134,42 +4135,42 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -4195,7 +4196,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -4208,7 +4209,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -4221,7 +4222,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
@@ -4234,7 +4235,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -4247,7 +4248,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -4260,7 +4261,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
@@ -4273,7 +4274,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -4286,7 +4287,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
@@ -4299,7 +4300,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -4325,7 +4326,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
@@ -4338,7 +4339,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -4351,7 +4352,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -4364,7 +4365,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -4377,7 +4378,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -4390,7 +4391,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -4403,7 +4404,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -4416,7 +4417,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -4429,7 +4430,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>102</v>
       </c>
@@ -4442,7 +4443,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
@@ -4486,7 +4487,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>105</v>
       </c>
@@ -4508,7 +4509,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -4530,7 +4531,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -4552,7 +4553,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -4574,7 +4575,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -4596,7 +4597,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
@@ -4618,7 +4619,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>111</v>
       </c>
@@ -4640,7 +4641,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>112</v>
       </c>
@@ -4662,7 +4663,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -4684,7 +4685,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>115</v>
       </c>
@@ -4719,7 +4720,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -4732,7 +4733,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -4745,7 +4746,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -4758,7 +4759,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>119</v>
       </c>
@@ -4771,7 +4772,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -4784,7 +4785,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>121</v>
       </c>
@@ -4806,7 +4807,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>122</v>
       </c>
@@ -4828,7 +4829,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
@@ -4850,7 +4851,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>124</v>
       </c>
@@ -4872,7 +4873,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -4894,7 +4895,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>126</v>
       </c>
@@ -4916,7 +4917,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
@@ -4929,7 +4930,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>128</v>
       </c>
@@ -4942,7 +4943,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
@@ -4955,7 +4956,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>130</v>
       </c>
@@ -4968,7 +4969,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>131</v>
       </c>
@@ -4981,7 +4982,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>132</v>
       </c>
@@ -5008,16 +5009,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFBECD2-99BF-47E1-9785-39A18FE51D4F}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="L6" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5055,7 +5056,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -5068,7 +5069,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -5081,7 +5082,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -5096,7 +5097,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -5112,7 +5113,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -5132,7 +5133,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -5147,7 +5148,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -5167,7 +5168,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -5187,7 +5188,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -5207,7 +5208,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -5227,7 +5228,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -5250,7 +5251,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -5264,7 +5265,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -5278,7 +5279,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -5292,7 +5293,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -5306,7 +5307,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -5322,7 +5323,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -5338,7 +5339,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -5361,7 +5362,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
@@ -5381,7 +5382,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -5404,7 +5405,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -5418,7 +5419,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -5439,7 +5440,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -5460,7 +5461,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -5481,7 +5482,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -5498,7 +5499,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -5512,7 +5513,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -5526,7 +5527,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -5550,7 +5551,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -5574,7 +5575,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -5598,7 +5599,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -5611,7 +5612,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -5624,7 +5625,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -5637,7 +5638,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -5650,7 +5651,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>78</v>
       </c>
@@ -5663,7 +5664,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -5676,7 +5677,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -5689,7 +5690,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -5702,7 +5703,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -5715,7 +5716,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -5739,7 +5740,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -5752,7 +5753,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -5776,7 +5777,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
@@ -5789,7 +5790,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -5802,7 +5803,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
@@ -5815,7 +5816,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
@@ -5839,7 +5840,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -5852,7 +5853,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>91</v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -5889,7 +5890,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -5902,7 +5903,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>94</v>
       </c>
@@ -5915,7 +5916,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -5928,7 +5929,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
@@ -5941,7 +5942,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>97</v>
       </c>
@@ -5954,7 +5955,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -5967,7 +5968,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
@@ -5980,7 +5981,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -5993,7 +5994,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>101</v>
       </c>
@@ -6006,7 +6007,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" s="7" t="s">
         <v>102</v>
       </c>
@@ -6019,7 +6020,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -6039,7 +6040,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
@@ -6059,7 +6060,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>105</v>
       </c>
@@ -6079,7 +6080,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -6092,7 +6093,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -6105,7 +6106,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -6118,7 +6119,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -6138,7 +6139,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
@@ -6158,7 +6159,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>111</v>
       </c>
@@ -6178,7 +6179,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>112</v>
       </c>
@@ -6191,7 +6192,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>113</v>
       </c>
@@ -6204,7 +6205,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -6217,7 +6218,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A73" s="7" t="s">
         <v>115</v>
       </c>
@@ -6230,7 +6231,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -6243,7 +6244,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A75" s="7" t="s">
         <v>117</v>
       </c>
@@ -6256,7 +6257,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>118</v>
       </c>
@@ -6269,7 +6270,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>119</v>
       </c>
@@ -6282,7 +6283,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -6295,7 +6296,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A79" s="7" t="s">
         <v>121</v>
       </c>
@@ -6308,7 +6309,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>122</v>
       </c>
@@ -6321,7 +6322,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
@@ -6334,7 +6335,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>124</v>
       </c>
@@ -6347,7 +6348,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A83" s="7" t="s">
         <v>125</v>
       </c>
@@ -6360,7 +6361,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>126</v>
       </c>
@@ -6373,7 +6374,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
@@ -6386,7 +6387,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>128</v>
       </c>
@@ -6399,7 +6400,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
@@ -6412,7 +6413,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>130</v>
       </c>
@@ -6425,7 +6426,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>131</v>
       </c>
@@ -6438,7 +6439,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>132</v>
       </c>
